--- a/biology/Zoologie/Hottentotta_schach/Hottentotta_schach.xlsx
+++ b/biology/Zoologie/Hottentotta_schach/Hottentotta_schach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta schach est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran et en Irak[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran et en Irak.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hottentotta schach mesure de 100 à 130 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hottentotta schach mesure de 100 à 130 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus schach par Birula en 1905. Elle est placée dans le genre Buthotus par Vachon en 1949[3] puis dans le genre Hottentotta par Farzanpay et Pretzmann en 1974[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus schach par Birula en 1905. Elle est placée dans le genre Buthotus par Vachon en 1949 puis dans le genre Hottentotta par Farzanpay et Pretzmann en 1974.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Birula, 1905 : « Beiträge zur Kenntniss der Scorpionenfauna Persiens (Dritter Beiträge). » Bulletin de l'Académie impériale des sciences de St.-Pétersbourg, sér. 5, vol. 23, p. 119-148 (texte intégral).</t>
         </is>
